--- a/ooo_loading/pipelines/tables.xlsx
+++ b/ooo_loading/pipelines/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/ooo_loading/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5284DA-941D-AD4B-AB72-0C0CAE94CC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643A5261-E215-CB43-92EC-49EAE9485FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
+    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,16 +306,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -641,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,28 +676,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="15" t="s">
@@ -709,32 +709,32 @@
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
       <c r="X1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="Y1" s="16"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
@@ -916,11 +916,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -928,6 +923,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
